--- a/summary/Ecuador.xlsx
+++ b/summary/Ecuador.xlsx
@@ -391,7 +391,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Accessible</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -412,7 +412,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Awareness</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -421,19 +421,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>295.5162474772909</v>
+        <v>303.4749349440595</v>
       </c>
       <c r="D3">
-        <v>304.6199067623892</v>
+        <v>307.5865648156748</v>
       </c>
       <c r="E3">
-        <v>272.6123260864397</v>
+        <v>293.1340276160129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Capabillity</t>
+          <t>Effectiveness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,19 +442,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>303.4749349440595</v>
+        <v>294.7584124137917</v>
       </c>
       <c r="D4">
-        <v>307.5865648156748</v>
+        <v>300.2309963104299</v>
       </c>
       <c r="E4">
-        <v>293.1340276160129</v>
+        <v>280.8525421442903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Effectiveness</t>
+          <t>Feedback</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>294.7584124137917</v>
+        <v>276.4096895702515</v>
       </c>
       <c r="D5">
-        <v>300.2309963104299</v>
+        <v>290.1965091802496</v>
       </c>
       <c r="E5">
-        <v>280.8525421442903</v>
+        <v>241.2312842539354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Openess</t>
+          <t>Information</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>276.4096895702515</v>
+        <v>292.7461347043148</v>
       </c>
       <c r="D6">
-        <v>290.1965091802496</v>
+        <v>300.0315577076272</v>
       </c>
       <c r="E6">
-        <v>241.2312842539354</v>
+        <v>274.0292602236755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Relevance</t>
+          <t>Responsiveness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>292.7461347043148</v>
+        <v>295.9513080279882</v>
       </c>
       <c r="D7">
-        <v>300.0315577076272</v>
+        <v>299.4623607136291</v>
       </c>
       <c r="E7">
-        <v>274.0292602236755</v>
+        <v>286.8352942089242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Responsiveness</t>
+          <t>Understanding</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>295.9513080279882</v>
+        <v>295.5162474772909</v>
       </c>
       <c r="D8">
-        <v>299.4623607136291</v>
+        <v>304.6199067623892</v>
       </c>
       <c r="E8">
-        <v>286.8352942089242</v>
+        <v>272.6123260864397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Accountability</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>292.2903064448338</v>
+        <v>279.9963000988926</v>
       </c>
       <c r="D9">
-        <v>298.4455097199593</v>
+        <v>286.3048672462349</v>
       </c>
       <c r="E9">
-        <v>276.0694297834638</v>
+        <v>259.6841074565675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fairness</t>
+          <t>Diversity</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -568,19 +568,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>295.6035608637371</v>
+        <v>302.3785539231894</v>
       </c>
       <c r="D10">
-        <v>301.0823732152409</v>
+        <v>304.7385036103676</v>
       </c>
       <c r="E10">
-        <v>282.0496101247486</v>
+        <v>296.3112343126991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Inclusiveness</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>302.2733062201123</v>
+        <v>292.2903064448338</v>
       </c>
       <c r="D11">
-        <v>307.1412558223707</v>
+        <v>298.4455097199593</v>
       </c>
       <c r="E11">
-        <v>289.9277680796902</v>
+        <v>276.0694297834638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Integrity</t>
+          <t>Fairness</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -610,19 +610,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>279.9963000988926</v>
+        <v>295.6035608637371</v>
       </c>
       <c r="D12">
-        <v>286.3048672462349</v>
+        <v>301.0823732152409</v>
       </c>
       <c r="E12">
-        <v>259.6841074565675</v>
+        <v>282.0496101247486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kindness</t>
+          <t>Inclusiveness</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -631,19 +631,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>292.8488276207705</v>
+        <v>302.2733062201123</v>
       </c>
       <c r="D13">
-        <v>299.5772365176763</v>
+        <v>307.1412558223707</v>
       </c>
       <c r="E13">
-        <v>275.9519510115809</v>
+        <v>289.9277680796902</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neutrality</t>
+          <t>Independence</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Respectfulness</t>
+          <t>People-centered</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>302.3785539231894</v>
+        <v>292.8488276207705</v>
       </c>
       <c r="D15">
-        <v>304.7385036103676</v>
+        <v>299.5772365176763</v>
       </c>
       <c r="E15">
-        <v>296.3112343126991</v>
+        <v>275.9519510115809</v>
       </c>
     </row>
     <row r="16">
@@ -953,8 +953,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F859FA712150B479D9EB3F3F84C330B" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88eaf3757d26accc65a513324c17f08e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79c0d9b1-af1f-434c-89cc-ab4c585bfb03" xmlns:ns3="cdc5b366-51ac-4812-b843-b15bce8615f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fa8aace0e71d763cd1a25b411f1052a" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F859FA712150B479D9EB3F3F84C330B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="761d2bce1f535026203ee2a63e6e787d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79c0d9b1-af1f-434c-89cc-ab4c585bfb03" xmlns:ns3="cdc5b366-51ac-4812-b843-b15bce8615f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de7ec49b66d8d16a325f2e071fd5a11b" ns2:_="" ns3:_="">
     <xsd:import namespace="79c0d9b1-af1f-434c-89cc-ab4c585bfb03"/>
     <xsd:import namespace="cdc5b366-51ac-4812-b843-b15bce8615f0"/>
     <xsd:element name="properties">
@@ -978,6 +978,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1052,6 +1053,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1205,9 +1211,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E443F8E8-FCEF-42E7-A99C-EA635FEFCC3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F1428E-5DEF-475F-935A-20918000FE9C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{754153D7-0554-450D-9E78-DC8569B7DB68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{860EF43A-04E8-4CC4-BDFD-D4F54B1AA208}"/>
 </file>